--- a/truck/Table/Character.xlsx
+++ b/truck/Table/Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kci\truck\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{984E67BA-F4EB-47C7-ADB3-38943A3072E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DE0A76-BD4B-4321-8744-3D304354796B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="26910" windowHeight="13620" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
+    <workbookView xWindow="870" yWindow="1230" windowWidth="26910" windowHeight="13620" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>a</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 프리팹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPEED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 아이콘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -46,7 +90,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,21 +106,51 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -85,8 +159,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -423,15 +503,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C17399B-D4C3-4AB1-B3D3-2D958F901435}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/truck/Table/Character.xlsx
+++ b/truck/Table/Character.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kci\truck\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DE0A76-BD4B-4321-8744-3D304354796B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3244B68B-5E5C-411D-9302-A97E37EE4DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="1230" windowWidth="26910" windowHeight="13620" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,17 @@
   </si>
   <si>
     <t>캐릭터 아이콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 몬스터인지
+Mob = 일반
+Obs = 장애물
+Boss = 보스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -159,7 +170,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -168,6 +179,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,21 +517,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C17399B-D4C3-4AB1-B3D3-2D958F901435}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -525,39 +539,45 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -565,7 +585,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>0</v>
@@ -577,9 +597,12 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>2</v>
       </c>
     </row>

--- a/truck/Table/Character.xlsx
+++ b/truck/Table/Character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kci\truck\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3244B68B-5E5C-411D-9302-A97E37EE4DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CD55FB-AD34-48D8-AF76-F62E0A7C6B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>캐릭터 프리팹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,10 +75,6 @@
   </si>
   <si>
     <t>Icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 아이콘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -94,6 +86,37 @@
 Mob = 일반
 Obs = 장애물
 Boss = 보스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster2</t>
+  </si>
+  <si>
+    <t>인게임 캐릭터 아이콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인게임 캐릭터 프리팹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스페셜 몬스터를 쓸것인지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsSpecial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpecialMonsterTag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -170,7 +193,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -182,6 +205,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,21 +543,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C17399B-D4C3-4AB1-B3D3-2D958F901435}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="15.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.625" customWidth="1"/>
+    <col min="11" max="11" width="25.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -539,45 +568,55 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -604,6 +643,40 @@
       </c>
       <c r="I3" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/truck/Table/Character.xlsx
+++ b/truck/Table/Character.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kci\truck\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CD55FB-AD34-48D8-AF76-F62E0A7C6B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6AF06A-9EFA-4DFD-838A-88F5723038D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
   </bookViews>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,44 +68,54 @@
   </si>
   <si>
     <t>Monster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인게임 캐릭터 프리팹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스페셜 몬스터를 쓸것인지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsSpecial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpecialMonsterTag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>어떤 몬스터인지
 Mob = 일반
 Obs = 장애물
-Boss = 보스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster2</t>
-  </si>
-  <si>
-    <t>인게임 캐릭터 아이콘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인게임 캐릭터 프리팹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스페셜 몬스터를 쓸것인지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsSpecial</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpecialMonsterTag</t>
+Boss = 보스(y값 영향 안받음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할아버지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스페셜몬스터 태그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잼민이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인게임 캐릭터 아이콘
+(도감 등에 사용)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -546,7 +545,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -589,32 +588,36 @@
         <v>9</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -645,7 +648,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>2</v>
@@ -653,7 +656,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -663,11 +666,14 @@
       </c>
       <c r="J4" t="b">
         <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H5">
         <v>0</v>

--- a/truck/Table/Character.xlsx
+++ b/truck/Table/Character.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kci\truck\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kci\kci\truck\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6AF06A-9EFA-4DFD-838A-88F5723038D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6793E7-E8FF-4B58-8988-5762EA0EE71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
   </bookViews>
@@ -35,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -116,6 +112,10 @@
   <si>
     <t>인게임 캐릭터 아이콘
 (도감 등에 사용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,7 +545,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -564,70 +564,70 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="K2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>0</v>
@@ -642,21 +642,21 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -668,12 +668,12 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <v>0</v>

--- a/truck/Table/Character.xlsx
+++ b/truck/Table/Character.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kci\kci\truck\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6793E7-E8FF-4B58-8988-5762EA0EE71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CA724A-EB21-4578-A7C0-8AB33B24A824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="#Character" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>

--- a/truck/Table/Character.xlsx
+++ b/truck/Table/Character.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kci\kci\truck\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\truckproject\kci\truck\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CA724A-EB21-4578-A7C0-8AB33B24A824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A0CA52-0459-4429-9DD2-460C4AD55F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
+    <workbookView xWindow="975" yWindow="390" windowWidth="25560" windowHeight="14685" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
   </bookViews>
   <sheets>
     <sheet name="#Character" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,15 +98,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>할아버지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스페셜몬스터 태그</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잼민이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -116,6 +108,40 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mon1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mon2</t>
+  </si>
+  <si>
+    <t>Mob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mon1_desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mon2_desc</t>
+  </si>
+  <si>
+    <t>mon3</t>
+  </si>
+  <si>
+    <t>mon4</t>
+  </si>
+  <si>
+    <t>mon3_desc</t>
+  </si>
+  <si>
+    <t>mon4_desc</t>
+  </si>
+  <si>
+    <t>mon1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C17399B-D4C3-4AB1-B3D3-2D958F901435}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -610,24 +636,24 @@
         <v>10</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>0</v>
@@ -642,46 +668,83 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
-      <c r="I5">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" t="b">
         <v>0</v>
       </c>
-      <c r="J5" t="b">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" t="b">
         <v>0</v>
       </c>
     </row>

--- a/truck/Table/Character.xlsx
+++ b/truck/Table/Character.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\truckproject\kci\truck\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kci\kci\truck\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A0CA52-0459-4429-9DD2-460C4AD55F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CA724A-EB21-4578-A7C0-8AB33B24A824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="390" windowWidth="25560" windowHeight="14685" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
   </bookViews>
   <sheets>
     <sheet name="#Character" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,7 +98,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>할아버지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>스페셜몬스터 태그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잼민이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -108,40 +116,6 @@
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mon1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mon2</t>
-  </si>
-  <si>
-    <t>Mob</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mon1_desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mon2_desc</t>
-  </si>
-  <si>
-    <t>mon3</t>
-  </si>
-  <si>
-    <t>mon4</t>
-  </si>
-  <si>
-    <t>mon3_desc</t>
-  </si>
-  <si>
-    <t>mon4_desc</t>
-  </si>
-  <si>
-    <t>mon1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -568,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C17399B-D4C3-4AB1-B3D3-2D958F901435}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -636,24 +610,24 @@
         <v>10</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>0</v>
@@ -668,83 +642,46 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
       </c>
       <c r="J4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
       </c>
       <c r="J5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" t="b">
         <v>0</v>
       </c>
     </row>

--- a/truck/Table/Character.xlsx
+++ b/truck/Table/Character.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\truckproject\kci\truck\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\kci\truck\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A0CA52-0459-4429-9DD2-460C4AD55F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04ADA724-E2E4-4901-80E9-ABBCCC879181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="390" windowWidth="25560" windowHeight="14685" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
   </bookViews>
   <sheets>
     <sheet name="#Character" sheetId="1" r:id="rId1"/>
@@ -571,7 +571,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -690,6 +690,18 @@
       <c r="C4" t="s">
         <v>22</v>
       </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
       <c r="H4" t="s">
         <v>29</v>
       </c>
@@ -707,6 +719,18 @@
       <c r="C5" t="s">
         <v>22</v>
       </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
       <c r="H5" t="s">
         <v>21</v>
       </c>
@@ -724,6 +748,18 @@
       <c r="C6" t="s">
         <v>22</v>
       </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
       <c r="H6" t="s">
         <v>25</v>
       </c>
@@ -740,6 +776,18 @@
       </c>
       <c r="C7" t="s">
         <v>22</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
       <c r="H7" t="s">
         <v>26</v>
